--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1888610.182010026</v>
+        <v>1992843.890403475</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9947692.893209256</v>
+        <v>9956605.784460863</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>238.7813195717444</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>289.5209659295295</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>24.58509276285606</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>132.0202522085368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>97.91652990141395</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>267.1758329068642</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6356755301001</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>336.8518318312767</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>98.79072260135079</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>120.1732544673558</v>
       </c>
       <c r="H10" t="n">
-        <v>97.37028815207016</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1347,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.9420388308264</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>117.2708639270857</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>53.11937003877912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128885</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="U22" t="n">
-        <v>272.8976078885852</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465737</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>275.6685478670693</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>105.1162657551305</v>
+        <v>153.8420267256002</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>105.1820732698684</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>47.16611136584764</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8253826161913524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>73.97774435452045</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>74.53917159609161</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219474</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>1859.132475219474</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259407</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283596</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>821.9680821844939</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2379.063119392553</v>
+        <v>1571.567792605666</v>
       </c>
       <c r="C4" t="n">
-        <v>2210.126936464646</v>
+        <v>1402.63160967776</v>
       </c>
       <c r="D4" t="n">
-        <v>2060.01029705231</v>
+        <v>1377.798182644572</v>
       </c>
       <c r="E4" t="n">
-        <v>1912.097203469917</v>
+        <v>1229.885089062179</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360284</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735003</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.60582160917</v>
+        <v>1974.008836579436</v>
       </c>
       <c r="V4" t="n">
-        <v>3070.921333403283</v>
+        <v>1974.008836579436</v>
       </c>
       <c r="W4" t="n">
-        <v>2781.504163366323</v>
+        <v>1974.008836579436</v>
       </c>
       <c r="X4" t="n">
-        <v>2781.504163366323</v>
+        <v>1974.008836579436</v>
       </c>
       <c r="Y4" t="n">
-        <v>2560.711584222793</v>
+        <v>1753.216257435906</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2085.807325826218</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1716.844808885807</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>2472.40716589034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.5934525793617</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C7" t="n">
-        <v>481.6572696514548</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1388.79275265787</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1099.375582620909</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>871.3860317228919</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.5934525793617</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.942324366272</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1660.609998322718</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3225.817212920936</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3019.839465305158</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3019.839465305158</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2688.776577961587</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2336.007922691473</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.542164430393</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1962.542164430393</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.1278029579775</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>262.1916200300706</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="D10" t="n">
-        <v>262.1916200300706</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="E10" t="n">
-        <v>262.1916200300706</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="F10" t="n">
-        <v>262.1916200300706</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="G10" t="n">
-        <v>262.1916200300706</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>651.9203821015076</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.1278029579775</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5030,25 +5032,25 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424045</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300688</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>376.4492432300688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>229.5592957321584</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>229.5592957321584</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207406</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6005,31 +6007,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>707.6725264685225</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406156</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282799</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.10312134031</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442292</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987622</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309957</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L27" t="n">
-        <v>943.5102657467545</v>
+        <v>2453.684166529966</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373306</v>
+        <v>3051.062654156518</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>3678.660617711125</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>4230.570347950412</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1050.315828159286</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6445,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622266</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343197</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219839</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395908</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>449.3439841395908</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>282.1478848544708</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3112.537432147379</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>2943.601249219472</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>2793.484609807137</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4576.144911917816</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4287.069685262014</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4032.385197056127</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3742.968027019167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3514.978476121149</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3294.185896977619</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6928,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474266</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2372.238089282765</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2152.636624305706</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,13 +7429,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>336.3048548543966</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363242</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>169.2521344095053</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>87.17534280744474</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>35.1126395763556</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>104.8770068749571</v>
       </c>
       <c r="U22" t="n">
-        <v>13.28686650065896</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>10.85445046952168</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>181.4067325814605</v>
+        <v>132.6809716109908</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>35.11263957635551</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>127.2568112467072</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>170.2393389614406</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>107.0485416471241</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>70.88187642683964</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>871243.0178326825</v>
+        <v>880155.9090842886</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.089149691</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.1790931202</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312015</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312021</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312027</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768857</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26451,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951083.6264771075</v>
+        <v>-770890.7275179874</v>
       </c>
       <c r="C6" t="n">
+        <v>174222.3776383792</v>
+      </c>
+      <c r="D6" t="n">
         <v>377661.119250485</v>
       </c>
-      <c r="D6" t="n">
-        <v>377661.1192504851</v>
-      </c>
       <c r="E6" t="n">
-        <v>128520.4838299724</v>
+        <v>128520.483829973</v>
       </c>
       <c r="F6" t="n">
+        <v>453932.9456373285</v>
+      </c>
+      <c r="G6" t="n">
         <v>453932.9456373284</v>
       </c>
-      <c r="G6" t="n">
-        <v>453932.9456373283</v>
-      </c>
       <c r="H6" t="n">
+        <v>453932.9456373286</v>
+      </c>
+      <c r="I6" t="n">
         <v>453932.9456373284</v>
       </c>
-      <c r="I6" t="n">
-        <v>453932.9456373285</v>
-      </c>
       <c r="J6" t="n">
-        <v>236401.7432400508</v>
+        <v>286327.7678273459</v>
       </c>
       <c r="K6" t="n">
-        <v>453932.9456373282</v>
+        <v>404822.852931274</v>
       </c>
       <c r="L6" t="n">
         <v>453932.9456373285</v>
       </c>
       <c r="M6" t="n">
-        <v>368877.9177018163</v>
+        <v>368877.9177018169</v>
       </c>
       <c r="N6" t="n">
-        <v>453932.9456373281</v>
+        <v>453932.9456373287</v>
       </c>
       <c r="O6" t="n">
-        <v>453932.9456373283</v>
+        <v>453932.9456373285</v>
       </c>
       <c r="P6" t="n">
-        <v>453932.9456373283</v>
+        <v>453932.9456373284</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>115.9017220489385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>96.71697272652409</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>124.0303802553563</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13.40079581439448</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>256.766511719269</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>102.5552677716048</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>27.50196779372794</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>17.83120978940627</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.39703918682505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>45.85255379167241</v>
       </c>
       <c r="H10" t="n">
-        <v>47.38472676225062</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -29202,7 +29204,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29275,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.707735062108396e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>677.7372574190229</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288684</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>344.6306853939237</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>316.2462973459351</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>477.8500485393217</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>520.3372160854087</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,7 +35901,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>535.1410129745784</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453816</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>206.7892464195648</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.2645232599136</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1992843.890403475</v>
+        <v>1988789.764644096</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9956605.784460863</v>
+        <v>9956605.784460861</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>339.2238824193778</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>289.5209659295295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.58509276285606</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>18.77568304716683</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D5" t="n">
-        <v>97.91652990141395</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>336.8518318312767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>120.1732544673558</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>126.9420388308264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>117.2708639270857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>251.0718348128885</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465737</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>101.0545458193602</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>275.6685478670693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>125.4250331806694</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8420267256002</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>124.8808320771208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>134.3852063573442</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>11.76284745948055</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>73.97774435452045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>7.408064079030886</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1494.730474240484</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>1108.94222164224</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>697.9563168526327</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526516</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844939</v>
+        <v>593.9684409159576</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>957.2304598751776</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1344.515588472123</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1571.567792605666</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C4" t="n">
-        <v>1402.63160967776</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D4" t="n">
-        <v>1377.798182644572</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E4" t="n">
-        <v>1229.885089062179</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075598</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U4" t="n">
-        <v>1974.008836579436</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V4" t="n">
-        <v>1974.008836579436</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W4" t="n">
-        <v>1974.008836579436</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X4" t="n">
-        <v>1974.008836579436</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>1753.216257435906</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2085.807325826218</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1716.844808885807</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2472.40716589034</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836216</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2029.57251526313</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1660.609998322718</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.57251526313</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.4421061205821</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>431.4421061205821</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>431.4421061205821</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>431.4421061205821</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>431.4421061205821</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641123</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.4421061205821</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.245947540652</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2333.297989183966</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,31 +6007,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685225</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406156</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282799</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.10312134031</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442292</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987622</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,49 +6229,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2453.684166529966</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3051.062654156518</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3678.660617711125</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4230.570347950412</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290468</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1278.305379057304</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.315828159286</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159286</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>229.5592957321579</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7022,22 +7022,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E40" t="n">
         <v>631.7012443408906</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2372.238089282765</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2152.636624305706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7788,19 +7788,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8063,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>231.2582814363242</v>
+        <v>0.9556134883076766</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>169.2521344095053</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.1126395763556</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>185.1299285698839</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>10.85445046952168</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>14.86967966555449</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>132.6809716109908</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>127.2568112467072</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>31.13893193492464</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>107.0485416471241</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>211.1765892730639</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.089149691</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830047</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>203438.7416121061</v>
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.1790931202</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26432,25 +26432,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768958</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770890.7275179874</v>
+        <v>-770890.7275179877</v>
       </c>
       <c r="C6" t="n">
-        <v>174222.3776383792</v>
+        <v>174222.377638379</v>
       </c>
       <c r="D6" t="n">
-        <v>377661.119250485</v>
+        <v>377661.1192504853</v>
       </c>
       <c r="E6" t="n">
-        <v>128520.483829973</v>
+        <v>128173.1045756164</v>
       </c>
       <c r="F6" t="n">
-        <v>453932.9456373285</v>
+        <v>453585.5663829713</v>
       </c>
       <c r="G6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829715</v>
       </c>
       <c r="H6" t="n">
-        <v>453932.9456373286</v>
+        <v>453585.5663829714</v>
       </c>
       <c r="I6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829714</v>
       </c>
       <c r="J6" t="n">
-        <v>286327.7678273459</v>
+        <v>285980.3885729891</v>
       </c>
       <c r="K6" t="n">
-        <v>404822.852931274</v>
+        <v>404475.473676917</v>
       </c>
       <c r="L6" t="n">
-        <v>453932.9456373285</v>
+        <v>453585.5663829714</v>
       </c>
       <c r="M6" t="n">
-        <v>368877.9177018169</v>
+        <v>368530.5384474597</v>
       </c>
       <c r="N6" t="n">
-        <v>453932.9456373287</v>
+        <v>453585.5663829715</v>
       </c>
       <c r="O6" t="n">
-        <v>453932.9456373285</v>
+        <v>453585.5663829715</v>
       </c>
       <c r="P6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829714</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>72.3238203535762</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.71697272652409</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>124.0303802553563</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>175.8867773145706</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D5" t="n">
-        <v>256.766511719269</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.83120978940627</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>45.85255379167241</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29204,7 +29204,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.707735062108396e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>677.7372574190229</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>520.3372160854087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>528.9386420741744</v>
+        <v>298.6359741261579</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>535.1410129745784</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>377.7409716409642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1988789.764644096</v>
+        <v>1990550.294946881</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>216.6493085946363</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>339.2238824193778</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.77568304716683</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376562</v>
+        <v>166.9920602376571</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247811</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>11.16818915334174</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>129.6194020613861</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>130.1208074460232</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
-        <v>101.0545458193602</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>125.4250331806694</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>139.7072979240949</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812011</v>
+        <v>142.4385057595941</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>11.76284745948055</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>199.5072400611301</v>
       </c>
     </row>
     <row r="41">
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.408064079030886</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4312,28 +4312,28 @@
         <v>1852.996172847235</v>
       </c>
       <c r="D2" t="n">
-        <v>1494.730474240484</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1108.94222164224</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>697.9563168526327</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4351,10 +4351,10 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159576</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751776</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472123</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,10 +4509,10 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
         <v>1514.8973771788</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458458</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
@@ -4652,10 +4652,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,22 +4670,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>691.6489789975192</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>522.7127960696123</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>372.5961566572765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>224.6830630748834</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>77.79311557697307</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>873.2974438277589</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>952.093754689846</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4846,10 +4846,10 @@
         <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="14">
@@ -5263,34 +5263,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2125.286319795768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>302.5953191078052</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>302.5953191078052</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650331</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>962.6357307816187</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>793.6995478537118</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>643.582908441376</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
         <v>631.7012443408906</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.284195611858</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9556134883076766</v>
+        <v>138.9393975111054</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>16.31315520054599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
-        <v>185.1299285698839</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>14.86967966555449</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405077</v>
+        <v>24.80831533903375</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>134.6711151870886</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>19.07741329096464</v>
       </c>
     </row>
     <row r="41">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.1765892730639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="16">
@@ -26319,25 +26319,25 @@
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830044</v>
@@ -26346,7 +26346,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26447,10 +26447,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768958</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770890.7275179877</v>
+        <v>-770890.7275179881</v>
       </c>
       <c r="C6" t="n">
-        <v>174222.377638379</v>
+        <v>174222.3776383792</v>
       </c>
       <c r="D6" t="n">
-        <v>377661.1192504853</v>
+        <v>377661.1192504854</v>
       </c>
       <c r="E6" t="n">
-        <v>128173.1045756164</v>
+        <v>128485.7459045375</v>
       </c>
       <c r="F6" t="n">
-        <v>453585.5663829713</v>
+        <v>453898.2077118929</v>
       </c>
       <c r="G6" t="n">
-        <v>453585.5663829715</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="H6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118929</v>
       </c>
       <c r="I6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="J6" t="n">
-        <v>285980.3885729891</v>
+        <v>286293.0299019101</v>
       </c>
       <c r="K6" t="n">
-        <v>404475.473676917</v>
+        <v>404788.1150058382</v>
       </c>
       <c r="L6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="M6" t="n">
-        <v>368530.5384474597</v>
+        <v>368843.1797763811</v>
       </c>
       <c r="N6" t="n">
-        <v>453585.5663829715</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="O6" t="n">
-        <v>453585.5663829715</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="P6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118927</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>138.0337330260467</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>72.3238203535762</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>175.8867773145706</v>
+        <v>74.32920489499683</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333513</v>
+        <v>198.2808315333504</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>154.8576191056865</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32955,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>298.6359741261579</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36138,10 +36138,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
